--- a/dataset-inventory/eebo/eebo_dataset_standard_5.xlsx
+++ b/dataset-inventory/eebo/eebo_dataset_standard_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\dataset-inventory\eebo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07F7571-508F-42D2-B646-E6F147225BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F1F31D-A45A-4DDA-BB99-F472FA9F9D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6128,8 +6128,8 @@
   <dimension ref="A1:J867"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D582" sqref="D582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
